--- a/dgt.xlsx
+++ b/dgt.xlsx
@@ -1,47 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Datalab\23_DGT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5937D7C4-EF5F-4F45-898A-26FCD7BC9429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2441F668-6999-49D0-8D12-0A0128A49F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{C5F8B29F-53BD-4F98-BBFF-2FFEE7DF6E94}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{C5F8B29F-53BD-4F98-BBFF-2FFEE7DF6E94}"/>
   </bookViews>
   <sheets>
-    <sheet name="Resumen" sheetId="5" r:id="rId1"/>
-    <sheet name="TD" sheetId="4" r:id="rId2"/>
-    <sheet name="Datos" sheetId="1" r:id="rId3"/>
+    <sheet name="Cruce1" sheetId="5" r:id="rId1"/>
+    <sheet name="Cruce2" sheetId="6" r:id="rId2"/>
+    <sheet name="TD" sheetId="4" r:id="rId3"/>
+    <sheet name="Datos" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Datos!$A$1:$C$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Datos!$A$2:$C$34</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="5" r:id="rId6"/>
   </pivotCaches>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="33">
   <si>
     <t>ETIQUETA1</t>
   </si>
@@ -129,6 +118,18 @@
   <si>
     <t>Días</t>
   </si>
+  <si>
+    <t>Cruce1</t>
+  </si>
+  <si>
+    <t>Cruce2</t>
+  </si>
+  <si>
+    <t>Parque vehículos 20250307</t>
+  </si>
+  <si>
+    <t>Parque vehículos 20250103</t>
+  </si>
 </sst>
 </file>
 
@@ -138,7 +139,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +278,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFC00000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -798,7 +807,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -847,6 +856,8 @@
     <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1248,7 +1259,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Resumen!$C$2:$G$2</c:f>
+              <c:f>Cruce1!$C$3:$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1271,7 +1282,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Resumen!$C$9:$G$9</c:f>
+              <c:f>Cruce1!$C$10:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1433,7 +1444,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="es-ES" baseline="0"/>
-              <a:t> Matrículas</a:t>
+              <a:t> Matrículas período</a:t>
             </a:r>
             <a:endParaRPr lang="es-ES"/>
           </a:p>
@@ -1753,7 +1764,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Resumen!$C$2:$G$2</c:f>
+              <c:f>Cruce1!$C$3:$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1776,7 +1787,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Resumen!$C$8:$G$8</c:f>
+              <c:f>Cruce1!$C$9:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1955,7 +1966,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Resumen!$L$2</c:f>
+              <c:f>Cruce1!$L$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2136,7 +2147,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Resumen!$B$3:$B$7</c:f>
+              <c:f>Cruce1!$B$4:$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2159,7 +2170,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Resumen!$L$3:$L$7</c:f>
+              <c:f>Cruce1!$L$4:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2259,6 +2270,2239 @@
         <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2086649119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cruce1!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T. de vida (años)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-71D2-436A-83C2-92B0DA235DAA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="2700000" scaled="1"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-71D2-436A-83C2-92B0DA235DAA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-71D2-436A-83C2-92B0DA235DAA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-71D2-436A-83C2-92B0DA235DAA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-71D2-436A-83C2-92B0DA235DAA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cruce1!$B$4:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1_Etiqueta 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2_Etiqueta ECO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3_Etiqueta C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4_Etiqueta B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5_Sin Etiqueta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cruce1!$M$4:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>43.525169405415127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.058227211725978</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.267877687734085</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.249269188313654</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.812407128349555</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-71D2-436A-83C2-92B0DA235DAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2086649119"/>
+        <c:axId val="2086651999"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2086649119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2086651999"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2086651999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2086649119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Mix Parque actual (07-mar-25)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DD81-49FB-A855-4FADE9CF9DC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill flip="none" rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="2700000" scaled="1"/>
+                <a:tileRect/>
+              </a:gradFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DD81-49FB-A855-4FADE9CF9DC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-DD81-49FB-A855-4FADE9CF9DC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-DD81-49FB-A855-4FADE9CF9DC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-DD81-49FB-A855-4FADE9CF9DC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.9304029304029304E-2"/>
+                  <c:y val="-0.14242424242424243"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-DD81-49FB-A855-4FADE9CF9DC0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.4191522762951257E-2"/>
+                  <c:y val="-0.12727272727272726"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-DD81-49FB-A855-4FADE9CF9DC0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-ES"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-DD81-49FB-A855-4FADE9CF9DC0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cruce2!$C$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1_Etiqueta 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2_Etiqueta ECO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3_Etiqueta C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4_Etiqueta B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5_Sin Etiqueta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cruce2!$C$10:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>612812</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1907833</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14300782</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10329260</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10007248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-DD81-49FB-A855-4FADE9CF9DC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="47"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Mix nuevas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> Matrículas período</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-ED35-4D12-BE35-B2E798147ACA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill flip="none" rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="2700000" scaled="1"/>
+                <a:tileRect/>
+              </a:gradFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-ED35-4D12-BE35-B2E798147ACA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-ED35-4D12-BE35-B2E798147ACA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-ED35-4D12-BE35-B2E798147ACA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-ED35-4D12-BE35-B2E798147ACA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6745077195021024E-2"/>
+                  <c:y val="-1.8181698878549271E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-ES"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="8.3945660638574018E-2"/>
+                      <c:h val="0.10365163445478405"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-ED35-4D12-BE35-B2E798147ACA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.41923468357664E-3"/>
+                  <c:y val="-3.787866857551897E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-ES"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="7.5573080837422785E-2"/>
+                      <c:h val="0.10971224051539009"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-ED35-4D12-BE35-B2E798147ACA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cruce2!$C$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1_Etiqueta 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2_Etiqueta ECO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3_Etiqueta C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4_Etiqueta B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5_Sin Etiqueta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cruce2!$C$9:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>33451</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92227</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>158685</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15081</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13614</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-ED35-4D12-BE35-B2E798147ACA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="47"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cruce2!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tasa Bajas anual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-75CB-4BEF-8B02-B259C26B3B2F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="2700000" scaled="1"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-75CB-4BEF-8B02-B259C26B3B2F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-75CB-4BEF-8B02-B259C26B3B2F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-75CB-4BEF-8B02-B259C26B3B2F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-75CB-4BEF-8B02-B259C26B3B2F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cruce2!$B$4:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1_Etiqueta 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2_Etiqueta ECO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3_Etiqueta C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4_Etiqueta B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5_Sin Etiqueta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cruce2!$L$4:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.3129976436728428E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9977816856477038E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6793710488736124E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8621773473547218E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5533179212764119E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-75CB-4BEF-8B02-B259C26B3B2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2086649119"/>
+        <c:axId val="2086651999"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2086649119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2086651999"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2086651999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2086649119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cruce2!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T. de vida (años)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-610B-4566-B2C8-286504D56CE9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="2700000" scaled="1"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-610B-4566-B2C8-286504D56CE9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-610B-4566-B2C8-286504D56CE9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-610B-4566-B2C8-286504D56CE9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-610B-4566-B2C8-286504D56CE9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cruce2!$B$4:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1_Etiqueta 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2_Etiqueta ECO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3_Etiqueta C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4_Etiqueta B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5_Sin Etiqueta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cruce2!$M$4:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>42.731989296232449</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.553837777362212</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.044690782153374</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.436016062146372</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.458123594215706</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-610B-4566-B2C8-286504D56CE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2086649119"/>
+        <c:axId val="2086651999"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2086649119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2086651999"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2086651999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2438,6 +4682,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -3477,6 +5921,2553 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3985,13 +8976,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1676399</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>981074</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4021,13 +9012,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4059,13 +9050,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2720</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1359</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4091,13 +9082,208 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>88287</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6214F0F-D1C7-489B-B617-CE734AA28713}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1676399</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>981074</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4837E675-2171-43CE-B42A-DC5778D92ABD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC0C691D-A137-410B-AEB6-ABE5F1BDA60B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2720</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1359</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{104C1139-2E27-4BF8-BDD4-28977BA414C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>88287</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA0FE920-E721-42FA-A9C1-859CFDA8BC47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Guillermo Luijk" refreshedDate="45715.022944328703" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="32" xr:uid="{469BCE31-8440-4388-8FA1-FC2C36B06899}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:C33" sheet="Datos"/>
+    <worksheetSource ref="A2:C34" sheet="Datos"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="ETIQUETA1" numFmtId="0">
@@ -4122,6 +9308,44 @@
     </cacheField>
     <cacheField name="N" numFmtId="3">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="14160632"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Guillermo Luijk" refreshedDate="45725.810247106485" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="32" xr:uid="{E10ABB97-9C90-4CA2-95ED-484A6554A348}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="E2:G34" sheet="Datos"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="ETIQUETA1" numFmtId="0">
+      <sharedItems count="6">
+        <s v="3_Etiqueta C"/>
+        <s v="4_Etiqueta B"/>
+        <s v="5_Sin Etiqueta"/>
+        <s v="2_Etiqueta ECO"/>
+        <s v="1_Etiqueta 0"/>
+        <s v="6_Alta"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="ETIQUETA2" numFmtId="0">
+      <sharedItems count="6">
+        <s v="3_Etiqueta C"/>
+        <s v="4_Etiqueta B"/>
+        <s v="5_Sin Etiqueta"/>
+        <s v="2_Etiqueta ECO"/>
+        <s v="1_Etiqueta 0"/>
+        <s v="6_Baja"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="N" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="14141434"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -4297,7 +9521,267 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="32">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="14141434"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="10313519"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="9993581"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="1814773"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="579287"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="158685"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="92227"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="80661"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="51792"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="41373"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <n v="33451"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="15081"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="13614"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="6328"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="5"/>
+    <n v="2343"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="608"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="548"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="433"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="241"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="206"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="51"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="41"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="22"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{50F07703-8FE4-47F4-9EC8-C1A6F450B1A7}" name="TablaDinámica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B16:I24" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de N" fld="2" baseField="0" baseItem="0" numFmtId="3"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{32B56FE5-94EF-4BBE-9649-7A18DE3B13E5}" name="TablaDinámica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:I11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
@@ -4731,9 +10215,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25FE161D-A5BF-4807-B71E-B03EF7FCAA56}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4746,365 +10230,769 @@
     <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
-        <v>14</v>
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="str">
+        <f>"Movimiento del parque de vehículos por distintivo ambiental entre el "&amp;DAY(C12)&amp;"-"&amp;MONTH(C12)&amp;"-"&amp;YEAR(C12)&amp;" y el "&amp;DAY(C13)&amp;"-"&amp;MONTH(C13)&amp;"-"&amp;YEAR(C13)</f>
+        <v>Movimiento del parque de vehículos por distintivo ambiental entre el 12-1-2025 y el 26-2-2025</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>16</v>
+      <c r="B2" s="22" t="str">
+        <f>"Parque vehículos "&amp;DAY(C13)&amp;"-"&amp;MONTH(C13)&amp;"-"&amp;YEAR(C13)</f>
+        <v>Parque vehículos 26-2-2025</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="22" t="str">
+        <f>"Parque vehículos "&amp;DAY(C12)&amp;"-"&amp;MONTH(C12)&amp;"-"&amp;YEAR(C12)</f>
+        <v>Parque vehículos 12-1-2025</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12">
-        <v>582435</v>
-      </c>
-      <c r="D3" s="13">
-        <v>2</v>
-      </c>
-      <c r="E3" s="13">
-        <v>1</v>
-      </c>
-      <c r="F3" s="13">
-        <v>1</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="27">
-        <v>1651</v>
-      </c>
-      <c r="I3" s="4">
-        <v>584090</v>
-      </c>
-      <c r="K3" s="32">
-        <f>H3/I3</f>
-        <v>2.8266191853995102E-3</v>
-      </c>
-      <c r="L3" s="32">
-        <f>1-(1-K3)^(365.25/$C$13)</f>
-        <v>2.2713291669205882E-2</v>
-      </c>
-      <c r="M3" s="33">
-        <f>-1/LN(1-L3)</f>
-        <v>43.525169405415127</v>
+      <c r="D3" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="15">
-        <v>34</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1822923</v>
-      </c>
-      <c r="E4" s="16">
-        <v>21</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17">
+        <v>7</v>
+      </c>
+      <c r="C4" s="12">
+        <v>582435</v>
+      </c>
+      <c r="D4" s="13">
+        <v>2</v>
+      </c>
+      <c r="E4" s="13">
         <v>1</v>
       </c>
-      <c r="H4" s="25">
-        <v>4779</v>
+      <c r="F4" s="13">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="27">
+        <v>1651</v>
       </c>
       <c r="I4" s="4">
-        <v>1827758</v>
+        <v>584090</v>
       </c>
       <c r="K4" s="32">
         <f>H4/I4</f>
-        <v>2.614678748499528E-3</v>
+        <v>2.8266191853995102E-3</v>
       </c>
       <c r="L4" s="32">
-        <f>1-(1-K4)^(365.25/$C$13)</f>
-        <v>2.1026073189931327E-2</v>
+        <f>1-(1-K4)^(365.25/$C$14)</f>
+        <v>2.2713291669205882E-2</v>
       </c>
       <c r="M4" s="33">
-        <f t="shared" ref="M4:M7" si="0">-1/LN(1-L4)</f>
-        <v>47.058227211725978</v>
+        <f>-1/LN(1-L4)</f>
+        <v>43.525169405415127</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" s="15">
-        <v>23</v>
-      </c>
-      <c r="D5" s="18">
-        <v>449</v>
-      </c>
-      <c r="E5" s="4">
-        <v>14160632</v>
-      </c>
-      <c r="F5" s="16">
-        <v>41</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1822923</v>
+      </c>
+      <c r="E5" s="16">
+        <v>21</v>
+      </c>
+      <c r="F5" s="16"/>
       <c r="G5" s="17">
         <v>1</v>
       </c>
       <c r="H5" s="25">
-        <v>31041</v>
+        <v>4779</v>
       </c>
       <c r="I5" s="4">
-        <v>14192187</v>
+        <v>1827758</v>
       </c>
       <c r="K5" s="32">
         <f>H5/I5</f>
-        <v>2.18718933170765E-3</v>
+        <v>2.614678748499528E-3</v>
       </c>
       <c r="L5" s="32">
-        <f>1-(1-K5)^(365.25/$C$13)</f>
-        <v>1.7615136458526415E-2</v>
+        <f>1-(1-K5)^(365.25/$C$14)</f>
+        <v>2.1026073189931327E-2</v>
       </c>
       <c r="M5" s="33">
-        <f t="shared" si="0"/>
-        <v>56.267877687734085</v>
+        <f t="shared" ref="M5:M8" si="0">-1/LN(1-L5)</f>
+        <v>47.058227211725978</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="15">
+        <v>23</v>
+      </c>
       <c r="D6" s="18">
-        <v>194</v>
-      </c>
-      <c r="E6" s="18">
-        <v>347</v>
-      </c>
-      <c r="F6" s="4">
-        <v>10321781</v>
+        <v>449</v>
+      </c>
+      <c r="E6" s="4">
+        <v>14160632</v>
+      </c>
+      <c r="F6" s="16">
+        <v>41</v>
       </c>
       <c r="G6" s="17">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="H6" s="25">
-        <v>37199</v>
+        <v>31041</v>
       </c>
       <c r="I6" s="4">
-        <v>10359557</v>
+        <v>14192187</v>
       </c>
       <c r="K6" s="32">
         <f>H6/I6</f>
-        <v>3.5907906100618009E-3</v>
+        <v>2.18718933170765E-3</v>
       </c>
       <c r="L6" s="32">
-        <f>1-(1-K6)^(365.25/$C$13)</f>
-        <v>2.8775568790601946E-2</v>
+        <f>1-(1-K6)^(365.25/$C$14)</f>
+        <v>1.7615136458526415E-2</v>
       </c>
       <c r="M6" s="33">
         <f t="shared" si="0"/>
-        <v>34.249269188313654</v>
+        <v>56.267877687734085</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="19">
-        <v>1</v>
-      </c>
-      <c r="D7" s="20">
-        <v>20</v>
-      </c>
-      <c r="E7" s="20">
-        <v>139</v>
-      </c>
-      <c r="F7" s="20">
-        <v>515</v>
-      </c>
-      <c r="G7" s="21">
-        <v>10005005</v>
+        <v>4</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="18">
+        <v>194</v>
+      </c>
+      <c r="E7" s="18">
+        <v>347</v>
+      </c>
+      <c r="F7" s="4">
+        <v>10321781</v>
+      </c>
+      <c r="G7" s="17">
+        <v>36</v>
       </c>
       <c r="H7" s="25">
-        <v>54184</v>
+        <v>37199</v>
       </c>
       <c r="I7" s="4">
-        <v>10059864</v>
+        <v>10359557</v>
       </c>
       <c r="K7" s="32">
         <f>H7/I7</f>
-        <v>5.3861563138428116E-3</v>
+        <v>3.5907906100618009E-3</v>
       </c>
       <c r="L7" s="32">
-        <f>1-(1-K7)^(365.25/$C$13)</f>
-        <v>4.2888892902389397E-2</v>
+        <f>1-(1-K7)^(365.25/$C$14)</f>
+        <v>2.8775568790601946E-2</v>
       </c>
       <c r="M7" s="33">
         <f t="shared" si="0"/>
-        <v>22.812407128349555</v>
+        <v>34.249269188313654</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="28">
-        <v>23222</v>
-      </c>
-      <c r="D8" s="29">
-        <v>63873</v>
-      </c>
-      <c r="E8" s="29">
-        <v>112204</v>
-      </c>
-      <c r="F8" s="29">
-        <v>12178</v>
-      </c>
-      <c r="G8" s="34">
-        <v>12532</v>
-      </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="39">
-        <v>224009</v>
-      </c>
-      <c r="K8" s="31"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
+      <c r="D8" s="20">
+        <v>20</v>
+      </c>
+      <c r="E8" s="20">
+        <v>139</v>
+      </c>
+      <c r="F8" s="20">
+        <v>515</v>
+      </c>
+      <c r="G8" s="21">
+        <v>10005005</v>
+      </c>
+      <c r="H8" s="25">
+        <v>54184</v>
+      </c>
+      <c r="I8" s="4">
+        <v>10059864</v>
+      </c>
+      <c r="K8" s="32">
+        <f>H8/I8</f>
+        <v>5.3861563138428116E-3</v>
+      </c>
+      <c r="L8" s="32">
+        <f>1-(1-K8)^(365.25/$C$14)</f>
+        <v>4.2888892902389397E-2</v>
+      </c>
+      <c r="M8" s="33">
+        <f t="shared" si="0"/>
+        <v>22.812407128349555</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="8">
+      <c r="B9" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="28">
+        <v>23222</v>
+      </c>
+      <c r="D9" s="29">
+        <v>63873</v>
+      </c>
+      <c r="E9" s="29">
+        <v>112204</v>
+      </c>
+      <c r="F9" s="29">
+        <v>12178</v>
+      </c>
+      <c r="G9" s="34">
+        <v>12532</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="39">
+        <v>224009</v>
+      </c>
+      <c r="K9" s="31"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="8">
         <v>605715</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D10" s="8">
         <v>1887461</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E10" s="8">
         <v>14273344</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F10" s="8">
         <v>10334516</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G10" s="8">
         <v>10017575</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H10" s="26">
         <v>128854</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I10" s="8">
         <v>37247465</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="23">
-        <v>45669</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="4">
-        <f>SUM(I3:I7)</f>
-        <v>37023456</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="23">
-        <v>45714</v>
+        <v>45669</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="4">
-        <f>SUM(C9:G9)</f>
-        <v>37118611</v>
+        <f>SUM(I4:I8)</f>
+        <v>37023456</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="23">
+        <v>45714</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="4">
+        <f>SUM(C10:G10)</f>
+        <v>37118611</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C13">
-        <f>C12-C11</f>
+      <c r="C14">
+        <f>C13-C12</f>
         <v>45</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E14" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="4">
-        <f>F12-F11</f>
+      <c r="F14" s="4">
+        <f>F13-F12</f>
         <v>95155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="36">
-        <f>SUM(C9:D9)/SUM(C9:G9)</f>
-        <v>6.7167815088770427E-2</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="4">
-        <f>SUM(C4:C7,D5:D7,E6:E7,F7)</f>
-        <v>1722</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="36">
+        <f>SUM(C10:D10)/SUM(C10:G10)</f>
+        <v>6.7167815088770427E-2</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="4">
+        <f>SUM(C5:C8,D6:D8,E7:E8,F8)</f>
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="36">
-        <f>SUM(C8:D8)/I8</f>
+      <c r="C17" s="36">
+        <f>SUM(C9:D9)/I9</f>
         <v>0.38880134280319095</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E17" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="4">
-        <f>SUM(D3:G3,E3:G4,F5:G5,G6)</f>
+      <c r="F17" s="4">
+        <f>SUM(D4:G4,E4:G5,F6:G6,G7)</f>
         <v>106</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="F11:F12 F15:F16 C16" formulaRange="1"/>
+    <ignoredError sqref="F12:F13 F16:F17 C17" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD594D9D-D036-420C-B4A5-4C96E722F48E}">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="4.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="str">
+        <f>"Movimiento del parque de vehículos por distintivo ambiental entre el "&amp;DAY(C12)&amp;"-"&amp;MONTH(C12)&amp;"-"&amp;YEAR(C12)&amp;" y el "&amp;DAY(C13)&amp;"-"&amp;MONTH(C13)&amp;"-"&amp;YEAR(C13)</f>
+        <v>Movimiento del parque de vehículos por distintivo ambiental entre el 3-1-2025 y el 7-3-2025</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="str">
+        <f>"Parque vehículos "&amp;DAY(C13)&amp;"-"&amp;MONTH(C13)&amp;"-"&amp;YEAR(C13)</f>
+        <v>Parque vehículos 7-3-2025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="str">
+        <f>"Parque vehículos "&amp;DAY(C12)&amp;"-"&amp;MONTH(C12)&amp;"-"&amp;YEAR(C12)</f>
+        <v>Parque vehículos 3-1-2025</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="12">
+        <v>579287</v>
+      </c>
+      <c r="D4" s="13">
+        <v>3</v>
+      </c>
+      <c r="E4" s="13">
+        <v>2</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="27">
+        <v>2343</v>
+      </c>
+      <c r="I4" s="4">
+        <f>SUM(C4:H4)</f>
+        <v>581636</v>
+      </c>
+      <c r="K4" s="32">
+        <f>H4/I4</f>
+        <v>4.028292609123232E-3</v>
+      </c>
+      <c r="L4" s="32">
+        <f>1-(1-K4)^(365.25/$C$14)</f>
+        <v>2.3129976436728428E-2</v>
+      </c>
+      <c r="M4" s="33">
+        <f>-1/LN(1-L4)</f>
+        <v>42.731989296232449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="15">
+        <v>40</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1814773</v>
+      </c>
+      <c r="E5" s="16">
+        <v>22</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17">
+        <v>1</v>
+      </c>
+      <c r="H5" s="25">
+        <v>6328</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" ref="I5:I10" si="0">SUM(C5:H5)</f>
+        <v>1821164</v>
+      </c>
+      <c r="K5" s="32">
+        <f>H5/I5</f>
+        <v>3.474700795754803E-3</v>
+      </c>
+      <c r="L5" s="32">
+        <f>1-(1-K5)^(365.25/$C$14)</f>
+        <v>1.9977816856477038E-2</v>
+      </c>
+      <c r="M5" s="33">
+        <f t="shared" ref="M5:M8" si="1">-1/LN(1-L5)</f>
+        <v>49.553837777362212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="15">
+        <v>32</v>
+      </c>
+      <c r="D6" s="18">
+        <v>548</v>
+      </c>
+      <c r="E6" s="4">
+        <v>14141434</v>
+      </c>
+      <c r="F6" s="16">
+        <v>51</v>
+      </c>
+      <c r="G6" s="17">
+        <v>7</v>
+      </c>
+      <c r="H6" s="25">
+        <v>41373</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="0"/>
+        <v>14183445</v>
+      </c>
+      <c r="K6" s="32">
+        <f>H6/I6</f>
+        <v>2.9169923104013164E-3</v>
+      </c>
+      <c r="L6" s="32">
+        <f>1-(1-K6)^(365.25/$C$14)</f>
+        <v>1.6793710488736124E-2</v>
+      </c>
+      <c r="M6" s="33">
+        <f t="shared" si="1"/>
+        <v>59.044690782153374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="18">
+        <v>241</v>
+      </c>
+      <c r="E7" s="18">
+        <v>433</v>
+      </c>
+      <c r="F7" s="4">
+        <v>10313519</v>
+      </c>
+      <c r="G7" s="17">
+        <v>45</v>
+      </c>
+      <c r="H7" s="25">
+        <v>51792</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="0"/>
+        <v>10366030</v>
+      </c>
+      <c r="K7" s="32">
+        <f>H7/I7</f>
+        <v>4.9963197096670568E-3</v>
+      </c>
+      <c r="L7" s="32">
+        <f>1-(1-K7)^(365.25/$C$14)</f>
+        <v>2.8621773473547218E-2</v>
+      </c>
+      <c r="M7" s="33">
+        <f t="shared" si="1"/>
+        <v>34.436016062146372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="19">
+        <v>2</v>
+      </c>
+      <c r="D8" s="20">
+        <v>41</v>
+      </c>
+      <c r="E8" s="20">
+        <v>206</v>
+      </c>
+      <c r="F8" s="20">
+        <v>608</v>
+      </c>
+      <c r="G8" s="21">
+        <v>9993581</v>
+      </c>
+      <c r="H8" s="25">
+        <v>80661</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="0"/>
+        <v>10075099</v>
+      </c>
+      <c r="K8" s="32">
+        <f>H8/I8</f>
+        <v>8.0059759214276705E-3</v>
+      </c>
+      <c r="L8" s="32">
+        <f>1-(1-K8)^(365.25/$C$14)</f>
+        <v>4.5533179212764119E-2</v>
+      </c>
+      <c r="M8" s="33">
+        <f t="shared" si="1"/>
+        <v>21.458123594215706</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="28">
+        <v>33451</v>
+      </c>
+      <c r="D9" s="29">
+        <v>92227</v>
+      </c>
+      <c r="E9" s="29">
+        <v>158685</v>
+      </c>
+      <c r="F9" s="29">
+        <v>15081</v>
+      </c>
+      <c r="G9" s="34">
+        <v>13614</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="39">
+        <f t="shared" si="0"/>
+        <v>313058</v>
+      </c>
+      <c r="K9" s="31"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="8">
+        <f>SUM(C4:C9)</f>
+        <v>612812</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" ref="D10:H10" si="2">SUM(D4:D9)</f>
+        <v>1907833</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="2"/>
+        <v>14300782</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="2"/>
+        <v>10329260</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="2"/>
+        <v>10007248</v>
+      </c>
+      <c r="H10" s="26">
+        <f t="shared" si="2"/>
+        <v>182497</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" si="0"/>
+        <v>37340432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="23">
+        <v>45660</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="4">
+        <f>SUM(I4:I8)</f>
+        <v>37027374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="23">
+        <v>45723</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="4">
+        <f>SUM(C10:G10)</f>
+        <v>37157935</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <f>C13-C12</f>
+        <v>63</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="4">
+        <f>F13-F12</f>
+        <v>130561</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="36">
+        <f>SUM(C10:D10)/SUM(C10:G10)</f>
+        <v>6.7835981735798828E-2</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="4">
+        <f>SUM(C5:C8,D6:D8,E7:E8,F8)</f>
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="36">
+        <f>SUM(C9:D9)/I9</f>
+        <v>0.40145276594113549</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="4">
+        <f>SUM(D4:G4,E4:G5,F6:G6,G7)</f>
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="F16:F17 C17" formulaRange="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F981489F-8A6C-4EE6-86B7-9D957FBF1BB3}">
-  <dimension ref="A2:I11"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5112,9 +11000,20 @@
   <cols>
     <col min="1" max="1" width="26.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="22" t="s">
         <v>14</v>
@@ -5337,14 +11236,312 @@
         <v>37247465</v>
       </c>
     </row>
+    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="22"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="12">
+        <v>579287</v>
+      </c>
+      <c r="D18" s="13">
+        <v>3</v>
+      </c>
+      <c r="E18" s="13">
+        <v>2</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="4">
+        <v>2343</v>
+      </c>
+      <c r="I18" s="4">
+        <v>581636</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="15">
+        <v>40</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1814773</v>
+      </c>
+      <c r="E19" s="16">
+        <v>22</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>6328</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1821164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="15">
+        <v>32</v>
+      </c>
+      <c r="D20" s="18">
+        <v>548</v>
+      </c>
+      <c r="E20" s="4">
+        <v>14141434</v>
+      </c>
+      <c r="F20" s="16">
+        <v>51</v>
+      </c>
+      <c r="G20" s="17">
+        <v>7</v>
+      </c>
+      <c r="H20" s="4">
+        <v>41373</v>
+      </c>
+      <c r="I20" s="4">
+        <v>14183445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="18">
+        <v>241</v>
+      </c>
+      <c r="E21" s="18">
+        <v>433</v>
+      </c>
+      <c r="F21" s="4">
+        <v>10313519</v>
+      </c>
+      <c r="G21" s="17">
+        <v>45</v>
+      </c>
+      <c r="H21" s="4">
+        <v>51792</v>
+      </c>
+      <c r="I21" s="4">
+        <v>10366030</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="19">
+        <v>2</v>
+      </c>
+      <c r="D22" s="20">
+        <v>41</v>
+      </c>
+      <c r="E22" s="20">
+        <v>206</v>
+      </c>
+      <c r="F22" s="20">
+        <v>608</v>
+      </c>
+      <c r="G22" s="21">
+        <v>9993581</v>
+      </c>
+      <c r="H22" s="4">
+        <v>80661</v>
+      </c>
+      <c r="I22" s="4">
+        <v>10075099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="4">
+        <v>33451</v>
+      </c>
+      <c r="D23" s="4">
+        <v>92227</v>
+      </c>
+      <c r="E23" s="4">
+        <v>158685</v>
+      </c>
+      <c r="F23" s="4">
+        <v>15081</v>
+      </c>
+      <c r="G23" s="5">
+        <v>13614</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="6">
+        <v>313058</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="10">
+        <v>612812</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1907833</v>
+      </c>
+      <c r="E24" s="10">
+        <v>14300782</v>
+      </c>
+      <c r="F24" s="10">
+        <v>10329260</v>
+      </c>
+      <c r="G24" s="10">
+        <v>10007248</v>
+      </c>
+      <c r="H24" s="11">
+        <v>182497</v>
+      </c>
+      <c r="I24" s="10">
+        <v>37340432</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AB684C-5238-4C09-B0D9-7AAB355A921A}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5353,373 +11550,682 @@
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="E1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="40"/>
+    </row>
+    <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
+      <c r="E2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C3" s="4">
         <v>14160632</v>
       </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4">
+        <v>14141434</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C4" s="4">
         <v>10321781</v>
       </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4">
+        <v>10313519</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C5" s="4">
         <v>10005005</v>
       </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4">
+        <v>9993581</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C6" s="4">
         <v>1822923</v>
       </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1814773</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C7" s="4">
         <v>582435</v>
       </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="4">
+        <v>579287</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4">
-        <v>112204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>112204</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="4">
+        <v>158685</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C9" s="4">
         <v>63873</v>
       </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4">
+        <v>92227</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4">
-        <v>54184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="4">
-        <v>37199</v>
+        <v>54184</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="4">
+        <v>80661</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="4">
+        <v>37199</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="4">
+        <v>51792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4">
         <v>31041</v>
       </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="4">
+        <v>41373</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="4">
-        <v>23222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" s="4">
-        <v>12532</v>
+        <v>23222</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="4">
+        <v>33451</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4">
+        <v>12532</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="4">
+      <c r="G14" s="4">
+        <v>15081</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4">
         <v>12178</v>
       </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4">
+        <v>13614</v>
+      </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4">
-        <v>4779</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>7</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="4">
+        <v>4779</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="4">
+        <v>6328</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4">
         <v>1651</v>
       </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2343</v>
+      </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C18" s="4">
         <v>515</v>
       </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="4">
+        <v>608</v>
+      </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>3</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C19" s="4">
         <v>449</v>
       </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="4">
+        <v>548</v>
+      </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="4">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="4">
+        <v>347</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="4">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C21" s="4">
         <v>194</v>
       </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="4">
+        <v>241</v>
+      </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>5</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C22" s="4">
         <v>139</v>
       </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="4">
+        <v>206</v>
+      </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>3</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C23" s="4">
         <v>41</v>
       </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="4">
+        <v>51</v>
+      </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>4</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C24" s="4">
         <v>36</v>
       </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="4">
+        <v>45</v>
+      </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>6</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="4">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>3</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="4">
+        <v>34</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="4">
         <v>23</v>
       </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="4">
+        <v>40</v>
+      </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>6</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C27" s="4">
         <v>21</v>
       </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="4">
+        <v>32</v>
+      </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>5</v>
-      </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="4">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="4">
         <v>2</v>
       </c>
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>6</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>5</v>
-      </c>
-      <c r="C29" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
       </c>
       <c r="C30" s="4">
         <v>1</v>
       </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" s="4">
         <v>1</v>
       </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" s="4">
         <v>1</v>
       </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
         <v>5</v>
-      </c>
-      <c r="B33" t="s">
-        <v>7</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
       </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C33" xr:uid="{22AB684C-5238-4C09-B0D9-7AAB355A921A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>